--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/python workplace/Descision tree/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B786662-6DC1-BB4F-A9B7-FA3D642F57AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E7F66D-553F-7048-A5EA-A8246C15B941}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{536D1402-96B6-EB42-BE80-12CC82C69ED9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="12">
   <si>
     <t>Class</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Accepted</t>
   </si>
 </sst>
 </file>
@@ -424,7 +430,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,8 +453,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>-1</v>
+      <c r="A2" t="s">
+        <v>10</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -464,8 +470,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>-1</v>
+      <c r="A3" t="s">
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -481,8 +487,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>11</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -498,8 +504,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
+      <c r="A5" t="s">
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -515,8 +521,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>-1</v>
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -532,8 +538,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>-1</v>
+      <c r="A7" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -549,8 +555,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>-1</v>
+      <c r="A8" t="s">
+        <v>10</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -566,8 +572,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1</v>
+      <c r="A9" t="s">
+        <v>11</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -583,8 +589,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>1</v>
+      <c r="A10" t="s">
+        <v>11</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -600,8 +606,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>1</v>
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -617,8 +623,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>1</v>
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -634,8 +640,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1</v>
+      <c r="A13" t="s">
+        <v>11</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -651,8 +657,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1</v>
+      <c r="A14" t="s">
+        <v>11</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -668,8 +674,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>1</v>
+      <c r="A15" t="s">
+        <v>11</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -685,8 +691,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>-1</v>
+      <c r="A16" t="s">
+        <v>10</v>
       </c>
       <c r="B16">
         <v>3</v>
